--- a/Monitoreo DI (Copia en conflicto de Patricio Emanuelli 2020-10-30).xlsx
+++ b/Monitoreo DI (Copia en conflicto de Patricio Emanuelli 2020-10-30).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36474FC-3693-4F5C-9C15-3BF70B7AE5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F18441-13DD-466F-9FE8-EE8747F0617A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F0BF9B96-FFF4-4E12-841F-9553B6E1990E}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="1016">
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/DATASALUD.svg</t>
   </si>
@@ -5089,13 +5089,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>46990</xdr:colOff>
+      <xdr:colOff>50165</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5165,15 +5165,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
+      <xdr:colOff>164465</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46991</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161291</xdr:rowOff>
+      <xdr:rowOff>164466</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5245,11 +5245,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67311</xdr:rowOff>
+      <xdr:rowOff>64136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>524510</xdr:colOff>
+      <xdr:colOff>521335</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -5321,15 +5321,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:colOff>658495</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29211</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3627120</xdr:colOff>
+      <xdr:colOff>3630295</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143511</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -7345,11 +7345,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z71" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A7:Z71" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0304927-521B-4559-963B-3C591C746F11}" name="PRODUCTOS" displayName="PRODUCTOS" ref="A7:Z67" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A7:Z67" xr:uid="{B45D9B6D-7E6E-4374-A7A8-688EAA2C002B}">
     <filterColumn colId="2">
       <filters>
-        <filter val="DATACLIMA"/>
+        <filter val="DATAEDUCACIÓN"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8493,14 +8493,14 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A7:Z71"/>
+  <dimension ref="A7:Z67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9275,7 +9275,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
         <f>+VLOOKUP(C20,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -9312,7 +9312,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
         <f>+VLOOKUP(C21,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -9324,7 +9324,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" ref="D21:D71" si="1">+A21&amp;"-"&amp;B21</f>
+        <f t="shared" ref="D21:D67" si="1">+A21&amp;"-"&amp;B21</f>
         <v>0010-00014</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -9349,7 +9349,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
         <f>+VLOOKUP(C22,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0010</v>
@@ -9386,23 +9386,23 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
         <f>+VLOOKUP(C23,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0010</v>
+        <v>0002</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0010-00016</v>
+        <v>0002-00017</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>920</v>
+        <v>299</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -9423,23 +9423,23 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="38"/>
     </row>
-    <row r="24" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
         <f>+VLOOKUP(C24,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0002-00017</v>
+        <v>0002-00018</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -9460,23 +9460,23 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
         <f>+VLOOKUP(C25,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0002-00018</v>
+        <v>0002-00019</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -9497,23 +9497,23 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
         <f>+VLOOKUP(C26,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0002-00019</v>
+        <v>0002-00020</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -9534,23 +9534,23 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
         <f>+VLOOKUP(C27,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0002-00020</v>
+        <v>0002-00021</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -9571,23 +9571,23 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
         <f>+VLOOKUP(C28,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0002</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0002-00021</v>
+        <v>0002-00022</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>243</v>
+        <v>927</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -9608,23 +9608,23 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="38"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
         <f>+VLOOKUP(C29,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0002</v>
+        <v>0001</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0002-00022</v>
+        <v>0001-00023</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -9645,23 +9645,23 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="38"/>
     </row>
-    <row r="30" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
         <f>+VLOOKUP(C30,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0001</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0001-00023</v>
+        <v>0001-00024</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -9685,20 +9685,20 @@
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
         <f>+VLOOKUP(C31,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0001</v>
+        <v>0020</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>933</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0001-00024</v>
+        <v>0020-00025</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -9725,17 +9725,17 @@
         <v>0020</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>933</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00025</v>
+        <v>0020-00026</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -9756,23 +9756,23 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="38"/>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="str">
         <f>+VLOOKUP(C33,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>933</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00026</v>
+        <v>0020-00027</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -9793,23 +9793,23 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="38"/>
     </row>
-    <row r="34" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="str">
         <f>+VLOOKUP(C34,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0020</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>933</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00027</v>
+        <v>0020-00028</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -9830,23 +9830,23 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="38"/>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="str">
         <f>+VLOOKUP(C35,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0020</v>
+        <v>0017</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>933</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0020-00028</v>
+        <v>0017-00029</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -9867,29 +9867,31 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="38"/>
     </row>
-    <row r="36" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
         <f>+VLOOKUP(C36,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0017</v>
+        <v>0003</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0017-00029</v>
+        <v>0003-00033</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -9907,26 +9909,28 @@
     <row r="37" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
         <f>+VLOOKUP(C37,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0016</v>
+        <v>0003</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0016-00030</v>
+        <v>0003-00034</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>350</v>
+        <v>949</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -9944,26 +9948,28 @@
     <row r="38" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
         <f>+VLOOKUP(C38,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0016</v>
+        <v>0003</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0016-00031</v>
+        <v>0003-00035</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>227</v>
+        <v>951</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -9978,23 +9984,23 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="38"/>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
         <f>+VLOOKUP(C39,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0016</v>
+        <v>0011</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0016-00032</v>
+        <v>0011-00036</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -10018,28 +10024,26 @@
     <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
         <f>+VLOOKUP(C40,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0003</v>
+        <v>0011</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0003-00033</v>
+        <v>0011-00037</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>947</v>
+        <v>247</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -10054,31 +10058,29 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="38"/>
     </row>
-    <row r="41" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
         <f>+VLOOKUP(C41,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0003</v>
+        <v>0011</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0003-00034</v>
+        <v>0011-00038</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>949</v>
+        <v>246</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -10096,28 +10098,26 @@
     <row r="42" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
         <f>+VLOOKUP(C42,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0003</v>
+        <v>0011</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0003-00035</v>
+        <v>0011-00039</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>951</v>
+        <v>249</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -10132,23 +10132,23 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="38"/>
     </row>
-    <row r="43" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
         <f>+VLOOKUP(C43,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0011</v>
+        <v>0005</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0011-00036</v>
+        <v>0005-00040</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>244</v>
+        <v>957</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -10172,20 +10172,20 @@
     <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
         <f>+VLOOKUP(C44,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0011</v>
+        <v>0005</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0011-00037</v>
+        <v>0005-00041</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>247</v>
+        <v>959</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -10206,23 +10206,23 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="38"/>
     </row>
-    <row r="45" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
         <f>+VLOOKUP(C45,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0011</v>
+        <v>0005</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0011-00038</v>
+        <v>0005-00042</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>246</v>
+        <v>961</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -10243,23 +10243,23 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="38"/>
     </row>
-    <row r="46" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
         <f>+VLOOKUP(C46,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0011</v>
+        <v>0005</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0011-00039</v>
+        <v>0005-00043</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>249</v>
+        <v>963</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -10286,17 +10286,17 @@
         <v>0005</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0005-00040</v>
+        <v>0005-00044</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -10320,20 +10320,20 @@
     <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
         <f>+VLOOKUP(C48,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0005</v>
+        <v>0019</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0005-00041</v>
+        <v>0019-00045</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -10354,23 +10354,23 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="38"/>
     </row>
-    <row r="49" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
         <f>+VLOOKUP(C49,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0005</v>
+        <v>0019</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="D49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0005-00042</v>
+        <v>0019-00046</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -10394,20 +10394,20 @@
     <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
         <f>+VLOOKUP(C50,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0005</v>
+        <v>0004</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0005-00043</v>
+        <v>0004-00047</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>963</v>
+        <v>360</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -10428,23 +10428,23 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="38"/>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
         <f>+VLOOKUP(C51,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0005</v>
+        <v>0004</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0005-00044</v>
+        <v>0004-00048</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -10465,23 +10465,23 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="38"/>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
         <f>+VLOOKUP(C52,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0019</v>
+        <v>0004</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0019-00045</v>
+        <v>0004-00049</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -10505,20 +10505,20 @@
     <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
         <f>+VLOOKUP(C53,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0019</v>
+        <v>0004</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0019-00046</v>
+        <v>0004-00050</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -10545,17 +10545,17 @@
         <v>0004</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00047</v>
+        <v>0004-00051</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>360</v>
+        <v>978</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -10576,23 +10576,23 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="38"/>
     </row>
-    <row r="55" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
         <f>+VLOOKUP(C55,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00048</v>
+        <v>0004-00052</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -10613,23 +10613,23 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="38"/>
     </row>
-    <row r="56" spans="1:26" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
         <f>+VLOOKUP(C56,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
         <v>0004</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00049</v>
+        <v>0004-00053</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -10656,17 +10656,17 @@
         <v>0004</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00050</v>
+        <v>0004-00054</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>976</v>
+        <v>361</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -10693,17 +10693,17 @@
         <v>0004</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00051</v>
+        <v>0004-00055</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -10730,17 +10730,17 @@
         <v>0004</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00052</v>
+        <v>0004-00056</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -10761,23 +10761,23 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="38"/>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
         <f>+VLOOKUP(C60,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0004</v>
+        <v>0007</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00053</v>
+        <v>0007-00057</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -10801,20 +10801,20 @@
     <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
         <f>+VLOOKUP(C61,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0004</v>
+        <v>0024</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>991</v>
       </c>
       <c r="D61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00054</v>
+        <v>0024-00058</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>361</v>
+        <v>992</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -10835,23 +10835,23 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="38"/>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
         <f>+VLOOKUP(C62,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0004</v>
+        <v>0024</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>6</v>
+        <v>991</v>
       </c>
       <c r="D62" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00055</v>
+        <v>0024-00059</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -10872,23 +10872,23 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="38"/>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
         <f>+VLOOKUP(C63,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0004</v>
+        <v>0024</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>6</v>
+        <v>991</v>
       </c>
       <c r="D63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0004-00056</v>
+        <v>0024-00060</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -10909,23 +10909,23 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="38"/>
     </row>
-    <row r="64" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
         <f>+VLOOKUP(C64,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0007</v>
+        <v>0024</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>991</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0007-00057</v>
+        <v>0024-00061</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -10949,20 +10949,20 @@
     <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
         <f>+VLOOKUP(C65,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <v>0006</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>991</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00058</v>
+        <v>0006-00062</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -10983,23 +10983,23 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="38"/>
     </row>
-    <row r="66" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
         <f>+VLOOKUP(C66,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <v>0006</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>991</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00059</v>
+        <v>0006-00063</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -11020,23 +11020,23 @@
       <c r="Y66" s="7"/>
       <c r="Z66" s="38"/>
     </row>
-    <row r="67" spans="1:26" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
         <f>+VLOOKUP(C67,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
+        <v>0003</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>991</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0024-00060</v>
+        <v>0003-00064</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -11056,154 +11056,6 @@
       <c r="U67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="38"/>
-    </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="str">
-        <f>+VLOOKUP(C68,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0024</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="D68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0024-00061</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="38"/>
-    </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="str">
-        <f>+VLOOKUP(C69,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0006</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0006-00062</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="38"/>
-    </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="str">
-        <f>+VLOOKUP(C70,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0006</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0006-00063</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="7"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="38"/>
-    </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="str">
-        <f>+VLOOKUP(C71,'[1]DATA`S'!$B$8:$C$31,2,0)</f>
-        <v>0003</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0003-00064</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="7"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -20507,7 +20359,7 @@
   </sheetPr>
   <dimension ref="B8:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -25250,9 +25102,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAELECCCIONES</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V36" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -25308,9 +25160,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATADELITO</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>GOOGLE EARTH ENGINE</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -25366,9 +25218,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATADELITO</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="2" t="str">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>POWER BI</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -25482,9 +25334,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V40" s="2" t="str">
+      <c r="V40" s="2">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>POWER BI</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -25540,9 +25392,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V41" s="2" t="str">
+      <c r="V41" s="2">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>GOOGLE EARTH ENGINE</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -25598,9 +25450,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V42" s="2" t="str">
+      <c r="V42" s="2">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>POWER BI</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -27106,9 +26958,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAEIACC</v>
       </c>
-      <c r="V68" s="2">
+      <c r="V68" s="2" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
@@ -27164,9 +27016,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAGLOBAL</v>
       </c>
-      <c r="V69" s="2">
+      <c r="V69" s="2" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
@@ -27222,9 +27074,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAGLOBAL</v>
       </c>
-      <c r="V70" s="2">
+      <c r="V70" s="2" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
@@ -27280,9 +27132,9 @@
         <f>SHOPIFY[[#This Row],[Data]]</f>
         <v>DATAAGRO</v>
       </c>
-      <c r="V71" s="2">
+      <c r="V71" s="2" t="e">
         <f>PRODUCTOS[[#This Row],[Tecnología]]</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
